--- a/Lab 1/Lab 1.3/Tables.xlsx
+++ b/Lab 1/Lab 1.3/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\SE357-Pratice-class\Lab 1\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7FD37-A340-4187-BD66-E1A2104A0A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24447210-FE43-4130-8F52-CD99AAB256FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" firstSheet="1" activeTab="1" xr2:uid="{E8E7CE82-6139-4640-AD13-F8DAB8984EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E8E7CE82-6139-4640-AD13-F8DAB8984EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Linkage Traceability Matrix" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -152,25 +152,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -179,14 +225,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECE304E-A177-4072-8B5F-8C0DFC6A0BC3}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,467 +577,462 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="10">
         <v>7</v>
       </c>
-      <c r="I1" s="6">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="9" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1186,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A4843D-3B7D-4D51-9C3E-71F32FA62B65}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1197,147 +1253,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1361,118 +1417,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
